--- a/份子钱.xlsx
+++ b/份子钱.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>白光</t>
   </si>
@@ -731,8 +731,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21:E22"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -806,7 +806,7 @@
         <v>刘翩</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" ref="C4:D17" si="1">RIGHT(A4,3)</f>
+        <f t="shared" ref="C4:C17" si="1">RIGHT(A4,3)</f>
         <v>200</v>
       </c>
       <c r="D4" s="8">
@@ -899,7 +899,9 @@
       <c r="D9" s="8">
         <v>500</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
@@ -986,7 +988,9 @@
       <c r="D14" s="8">
         <v>500</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
@@ -1067,7 +1071,7 @@
         <v>佳启</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f t="shared" ref="C19:D29" si="2">RIGHT(A19,3)</f>
+        <f t="shared" ref="C19:C29" si="2">RIGHT(A19,3)</f>
         <v>500</v>
       </c>
       <c r="D19" s="8">
@@ -1279,13 +1283,15 @@
         <v>胡子</v>
       </c>
       <c r="C31" s="5" t="str">
-        <f t="shared" ref="C31:D39" si="3">RIGHT(A31,3)</f>
+        <f t="shared" ref="C31:C39" si="3">RIGHT(A31,3)</f>
         <v>500</v>
       </c>
       <c r="D31" s="8">
         <v>500</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
@@ -1387,7 +1393,9 @@
       <c r="D37" s="8">
         <v>500</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
@@ -1717,5 +1725,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>